--- a/biology/Zoologie/Conops/Conops.xlsx
+++ b/biology/Zoologie/Conops/Conops.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Conops est un genre d'insectes diptères brachycères de la famille des Conopidae. Les adultes se nourrissent de nectar. Le comportement d'une grande partie de ces espèces est inconnue ; pour celles dont il a été étudiée, la larve est obligatoirement endoparasite d'autres insectes, en particulier les hymenoptère pollinisateurs et parmi eux, les bourdons. L'espèce-type du genre est Conops flavipes[1].
-Les Conops appartiennent à la sous-famille Conopinae dont les espèces sont généralement de taille moyenne, de coloration noire et jaune, à l'abdomen cintré et aux antennes allongées. Elle présentent souvent une ressemblance frappante avec certaines Vespidae ou Syrphidae. De ces dernières, elles se distinguent par l'absence de fausse-nervure (vena spuria) sur leurs ailes. Les espèces européennes Conops se distiguent des autres genres de cette sous-famille par les nervures de leurs ailes : la veine transversale antérieure (r-m) se positionne au-delà du deuxième tiers de la cellule discale (1st M2 ou dm suivant la nomenclature). Enfin, le deuxième segment abdominal est moyennement étroit et le fémur n'est pas particulièrement épais[2].
-La majorité des 139 espèces que comporte ce genre se rencontre en écozone paléarctique (41, dont 15 en Europe), indomalaise (42) et afrotropicale (46), très peu en Australasie (9) et en Néotropique (8), aucune en Néarctique[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Conops est un genre d'insectes diptères brachycères de la famille des Conopidae. Les adultes se nourrissent de nectar. Le comportement d'une grande partie de ces espèces est inconnue ; pour celles dont il a été étudiée, la larve est obligatoirement endoparasite d'autres insectes, en particulier les hymenoptère pollinisateurs et parmi eux, les bourdons. L'espèce-type du genre est Conops flavipes.
+Les Conops appartiennent à la sous-famille Conopinae dont les espèces sont généralement de taille moyenne, de coloration noire et jaune, à l'abdomen cintré et aux antennes allongées. Elle présentent souvent une ressemblance frappante avec certaines Vespidae ou Syrphidae. De ces dernières, elles se distinguent par l'absence de fausse-nervure (vena spuria) sur leurs ailes. Les espèces européennes Conops se distiguent des autres genres de cette sous-famille par les nervures de leurs ailes : la veine transversale antérieure (r-m) se positionne au-delà du deuxième tiers de la cellule discale (1st M2 ou dm suivant la nomenclature). Enfin, le deuxième segment abdominal est moyennement étroit et le fémur n'est pas particulièrement épais.
+La majorité des 139 espèces que comporte ce genre se rencontre en écozone paléarctique (41, dont 15 en Europe), indomalaise (42) et afrotropicale (46), très peu en Australasie (9) et en Néotropique (8), aucune en Néarctique.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Sous-genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Jens-Hermann Stuke[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Jens-Hermann Stuke :
 sous-genre Conops Linneaus, 1758 (espèce-type : Conops flavipes)
 sous-genre Asiconops Chen, 1939 (espèce-type : Conops aureomaculatus)
 sous-genre Ceratoconops Camras, 1955 (espèce-type : Conops ornatus)
@@ -550,9 +564,11 @@
           <t>Ensemble des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Jens-Hermann Stuke[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Jens-Hermann Stuke :
 Conops africanus, Afrotropique
 Conops annulosus, Indomalais et Est-Paléarctique
 Conops apicalis, Afrotropique
@@ -690,7 +706,7 @@
 Conops vesicularis, Europe
 Conops vitellinus, Europe
 Conops weinbergae, Roumanie
-Le nom Conops longiventris, souvent utilisé, est considéré comme synonyme de Conops flavifrons[1].
+Le nom Conops longiventris, souvent utilisé, est considéré comme synonyme de Conops flavifrons.
 </t>
         </is>
       </c>
@@ -719,9 +735,11 @@
           <t>Les espèces européennes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Fauna Europaea                                      (7 mars 2019)[3], pondéré par le jeu des synonymie de Jens-Hermann Stuke[1]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Fauna Europaea                                      (7 mars 2019), pondéré par le jeu des synonymie de Jens-Hermann Stuke
 sous-genre Asiconops Chen, 1939
 Conops elegans
 Conops flavifrons
